--- a/Deliverables/IG/examples/simple_1.xlsx
+++ b/Deliverables/IG/examples/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600CAAD6-00F7-814A-878B-3A4A7444BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E106106-40FD-B646-8707-FE726628B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59820" yWindow="500" windowWidth="40580" windowHeight="26800" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="39900" yWindow="800" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="studyDesignPopulations" sheetId="7" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="8" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="configuration" sheetId="10" r:id="rId9"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
+    <sheet name="configuration" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="204">
   <si>
     <t>Epoch</t>
   </si>
@@ -202,9 +203,6 @@
     <t>studyDesignBlindingScheme</t>
   </si>
   <si>
-    <t>"Study design rationale put here"</t>
-  </si>
-  <si>
     <t>trialIntentTypes</t>
   </si>
   <si>
@@ -623,6 +621,42 @@
   </si>
   <si>
     <t>Potential subject identified</t>
+  </si>
+  <si>
+    <t>procedureType</t>
+  </si>
+  <si>
+    <t>procedureCode</t>
+  </si>
+  <si>
+    <t>procedureIsConditional</t>
+  </si>
+  <si>
+    <t>procedureIsConditionalReason</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345678=Test</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345679=Test</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Only do it they have man flu</t>
+  </si>
+  <si>
+    <t>Basic study</t>
   </si>
 </sst>
 </file>
@@ -694,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -751,6 +785,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -762,18 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,7 +1179,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1153,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -1164,10 +1204,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1178,10 +1218,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1192,10 +1232,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1216,42 +1256,42 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1261,33 +1301,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G11" s="20">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1369,6 +1409,40 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1409,7 +1483,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1423,33 +1497,33 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1461,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,87 +1550,87 @@
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+        <v>184</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
@@ -1637,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -1654,11 +1728,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1669,20 +1743,20 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -1704,11 +1778,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -1730,8 +1804,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1752,8 +1826,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1774,8 +1848,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1870,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1818,8 +1892,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1922,72 +1996,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2014,72 +2088,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2106,205 +2180,205 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2517,90 +2591,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
         <v>177</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
         <v>178</v>
       </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>179</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
         <v>180</v>
-      </c>
-      <c r="F5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2609,33 +2683,70 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24" style="9" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/IG/examples/simple_1.xlsx
+++ b/Deliverables/IG/examples/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E106106-40FD-B646-8707-FE726628B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEC798-F372-8F48-B813-CB900CEDAC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39900" yWindow="800" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="studyDesignOE" sheetId="8" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
     <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="configuration" sheetId="10" r:id="rId10"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
+    <sheet name="configuration" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="256">
   <si>
     <t>Epoch</t>
   </si>
@@ -62,15 +64,9 @@
     <t>Cycle End Rule</t>
   </si>
   <si>
-    <t>Visit Label</t>
-  </si>
-  <si>
     <t>A:</t>
   </si>
   <si>
-    <t>Visit Window</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -125,9 +121,6 @@
     <t>Timing</t>
   </si>
   <si>
-    <t>BC/Profile</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -179,9 +172,6 @@
     <t>Simple Test 1</t>
   </si>
   <si>
-    <t>cell</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -657,6 +647,174 @@
   </si>
   <si>
     <t>Basic study</t>
+  </si>
+  <si>
+    <t>encounterName</t>
+  </si>
+  <si>
+    <t>encounterDescription</t>
+  </si>
+  <si>
+    <t>encounterType</t>
+  </si>
+  <si>
+    <t>encounterEnvironmentalSetting</t>
+  </si>
+  <si>
+    <t>encounterContactModes</t>
+  </si>
+  <si>
+    <t>transitionStartRule</t>
+  </si>
+  <si>
+    <t>transitionEndRule</t>
+  </si>
+  <si>
+    <t>Screening encounter</t>
+  </si>
+  <si>
+    <t>Baseline encounter</t>
+  </si>
+  <si>
+    <t>First dose</t>
+  </si>
+  <si>
+    <t>2 week visit</t>
+  </si>
+  <si>
+    <t>5 week visit</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>CLINIC</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>TELEPHONE CALL</t>
+  </si>
+  <si>
+    <t>IEs passed</t>
+  </si>
+  <si>
+    <t>Radomized</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Encounter xref</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>BC/Procedure/Timeline</t>
+  </si>
+  <si>
+    <t>Epoch/Arms</t>
+  </si>
+  <si>
+    <t>Subject identified</t>
+  </si>
+  <si>
+    <t>studyElementName</t>
+  </si>
+  <si>
+    <t>studyElementDescription</t>
+  </si>
+  <si>
+    <t>EL1</t>
+  </si>
+  <si>
+    <t>EL2</t>
+  </si>
+  <si>
+    <t>EL3</t>
+  </si>
+  <si>
+    <t>EL4</t>
+  </si>
+  <si>
+    <t>EL5</t>
+  </si>
+  <si>
+    <t>Follow Up</t>
+  </si>
+  <si>
+    <t>Follow Up Element</t>
+  </si>
+  <si>
+    <t>Screening Element</t>
+  </si>
+  <si>
+    <t>Baseline Element</t>
+  </si>
+  <si>
+    <t>Study Start</t>
+  </si>
+  <si>
+    <t>Screened</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Leave Study</t>
+  </si>
+  <si>
+    <t>EL3,EL5</t>
+  </si>
+  <si>
+    <t>EL5, EL3</t>
+  </si>
+  <si>
+    <t>Treatment 1</t>
+  </si>
+  <si>
+    <t>Treatment 2</t>
+  </si>
+  <si>
+    <t>Treatment Element 1</t>
+  </si>
+  <si>
+    <t>Treatment Element 2</t>
+  </si>
+  <si>
+    <t>Completed treatment 1</t>
+  </si>
+  <si>
+    <t>Completed treatment 2</t>
+  </si>
+  <si>
+    <t>The main design for the study</t>
+  </si>
+  <si>
+    <t>Study Design 1</t>
+  </si>
+  <si>
+    <t>studyDesignName</t>
+  </si>
+  <si>
+    <t>studyDesignDescription</t>
   </si>
 </sst>
 </file>
@@ -728,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -738,12 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -756,7 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -770,14 +921,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -785,23 +930,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1132,7 +1279,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,271 +1287,271 @@
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="F9" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="G9" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="H9" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="B10" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="C10" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="D10" s="11" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="20">
+      <c r="G10" s="15">
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="20">
+        <v>160</v>
+      </c>
+      <c r="G11" s="15">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1416,6 +1563,289 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1429,19 +1859,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>171</v>
+      <c r="A1" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>171</v>
+      <c r="A2" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1884,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,63 +1897,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>61</v>
+      <c r="F1" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,162 +1976,189 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1715,7 +2172,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,247 +2185,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
+      <c r="A9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1995,73 +2452,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2087,73 +2544,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2179,391 +2636,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="E3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="E4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2590,91 +3047,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>137</v>
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
         <v>176</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2695,58 +3152,58 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24" style="7" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>195</v>
+      <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/IG/examples/simple_1.xlsx
+++ b/Deliverables/IG/examples/simple_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEC798-F372-8F48-B813-CB900CEDAC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919001D-75ED-5D41-A5EA-94B7D2CEEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="262">
   <si>
     <t>Epoch</t>
   </si>
@@ -815,6 +815,24 @@
   </si>
   <si>
     <t>studyDesignDescription</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test Eight</t>
+  </si>
+  <si>
+    <t>Test Nine</t>
   </si>
 </sst>
 </file>
@@ -951,10 +969,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1965,7 +1983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
@@ -1980,34 +1998,34 @@
       <c r="A1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -2035,54 +2053,54 @@
       <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -2149,16 +2167,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3141,23 +3159,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
@@ -3165,16 +3184,22 @@
         <v>188</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -3182,10 +3207,16 @@
         <v>193</v>
       </c>
       <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -3193,17 +3224,25 @@
         <v>193</v>
       </c>
       <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/IG/examples/simple_1.xlsx
+++ b/Deliverables/IG/examples/simple_1.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919001D-75ED-5D41-A5EA-94B7D2CEEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18230AC2-0357-014B-B1F4-06AC9C56265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" firstSheet="2" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId5"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId6"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId7"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
-    <sheet name="configuration" sheetId="10" r:id="rId12"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
+    <sheet name="configuration" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="283">
   <si>
     <t>Epoch</t>
   </si>
@@ -833,6 +835,69 @@
   </si>
   <si>
     <t>Test Nine</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Baseline Epoch</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
   </si>
 </sst>
 </file>
@@ -1581,6 +1646,209 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1739,7 +2007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1863,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1983,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
@@ -2183,6 +2451,157 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -2455,7 +2874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2544,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2636,7 +3055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -3044,207 +3463,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>